--- a/CB_columnsIndex.xlsx
+++ b/CB_columnsIndex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\CrowBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD75A396-E895-4EEA-9C55-1FAB36A2B83B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45639AB0-C34A-48C0-AFB5-503263684D81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{73C036D2-F1CC-497C-9EAB-40207401B801}"/>
+    <workbookView xWindow="3288" yWindow="120" windowWidth="6828" windowHeight="12444" xr2:uid="{73C036D2-F1CC-497C-9EAB-40207401B801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
     <t>nestlingMeasurementID</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>colNum</t>
+  </si>
+  <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>outlierCsv</t>
   </si>
 </sst>
 </file>
@@ -745,26 +754,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D78367-F854-4EC5-87B8-F1FA2F14BF5D}">
-  <dimension ref="A1:B120"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>119</v>
       </c>
       <c r="B1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -772,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -780,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -788,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -796,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -804,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -812,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -820,196 +834,232 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1017,7 +1067,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1025,7 +1075,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1033,7 +1083,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1041,7 +1091,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1049,7 +1099,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1057,7 +1107,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1065,7 +1115,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1073,7 +1123,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1081,7 +1131,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1089,7 +1139,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1097,7 +1147,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1105,7 +1155,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1113,7 +1163,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1121,7 +1171,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1129,7 +1179,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1137,7 +1187,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1145,7 +1195,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1153,7 +1203,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1161,7 +1211,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1169,7 +1219,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1177,7 +1227,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1185,7 +1235,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1193,7 +1243,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1201,7 +1251,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1209,7 +1259,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1217,7 +1267,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1225,7 +1275,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1233,7 +1283,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1241,7 +1291,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1249,7 +1299,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1257,7 +1307,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1265,7 +1315,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1273,7 +1323,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1281,7 +1331,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1289,7 +1339,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1297,7 +1347,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1305,7 +1355,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1313,7 +1363,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1321,7 +1371,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1329,7 +1379,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1337,7 +1387,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1345,7 +1395,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1353,7 +1403,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1361,7 +1411,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1369,7 +1419,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1377,7 +1427,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1385,7 +1435,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1393,7 +1443,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1401,7 +1451,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1409,7 +1459,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1417,7 +1467,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1425,7 +1475,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1433,7 +1483,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1441,7 +1491,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1449,7 +1499,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1457,7 +1507,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1465,7 +1515,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1473,7 +1523,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1481,7 +1531,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1489,7 +1539,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1497,7 +1547,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1505,7 +1555,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1513,7 +1563,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1521,7 +1571,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1529,7 +1579,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1537,7 +1587,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1545,7 +1595,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1553,7 +1603,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1561,7 +1611,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1569,7 +1619,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1577,7 +1627,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1585,7 +1635,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1593,7 +1643,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1601,7 +1651,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1609,7 +1659,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1617,7 +1667,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1625,7 +1675,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1633,7 +1683,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1641,7 +1691,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1649,7 +1699,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1657,7 +1707,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1665,7 +1715,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1673,7 +1723,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1681,7 +1731,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1689,7 +1739,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1697,7 +1747,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1705,7 +1755,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1713,6 +1763,14 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
         <v>117</v>
       </c>
     </row>
